--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B4" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>100</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>100</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B6" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>100</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B7" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>100</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B8" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>100</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>100</v>
@@ -569,13 +569,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>100</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>

--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B3" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>100</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -527,10 +527,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>100</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B9" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
         <v>100</v>
@@ -569,13 +569,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>100</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
